--- a/Drinking lang and long.xlsx
+++ b/Drinking lang and long.xlsx
@@ -1,9 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="78" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B099B05B-DFA2-4F28-A191-D6C3275EE504}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\munho\Desktop\Glasgow\Interactive Systems\Assignment\IS3Assignment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8CCB3B-2ED4-4DE6-9989-1217EE57CD8C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,18 +449,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -477,7 +482,7 @@
         <v>-4.3789400000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -488,7 +493,7 @@
         <v>4.2476000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -499,7 +504,7 @@
         <v>4.2572000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -510,7 +515,7 @@
         <v>4.2610999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -521,7 +526,7 @@
         <v>4.2523</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -532,7 +537,7 @@
         <v>4.2519999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -543,7 +548,7 @@
         <v>4.2484999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -554,7 +559,7 @@
         <v>4.2422000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -565,7 +570,7 @@
         <v>4.2478999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -576,7 +581,7 @@
         <v>4.2454000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -587,7 +592,7 @@
         <v>4.2927</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -598,7 +603,7 @@
         <v>4.2685000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -609,7 +614,7 @@
         <v>4.2758000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -620,7 +625,7 @@
         <v>4.2545000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -631,7 +636,7 @@
         <v>4.2632000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -642,7 +647,7 @@
         <v>4.2525000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -653,7 +658,7 @@
         <v>4.2530999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -664,7 +669,7 @@
         <v>4.2756999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -675,7 +680,7 @@
         <v>4.2991999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
